--- a/console/Networking/agExcel/components/changeTemplate.xlsx
+++ b/console/Networking/agExcel/components/changeTemplate.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/agExcel/components/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9497F28-A385-A840-B35E-9054D83B6DB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24780" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -136,27 +142,30 @@
     </r>
   </si>
   <si>
-    <t>PVC configured to the instance template to be replaced must be as the same as the one of the former instance template and the Generation II specification shall be configured as the instance type.</t>
-  </si>
-  <si>
     <t>Instance Template</t>
   </si>
   <si>
-    <t>'Instance types configured for the instance template are sold out in Availability Zones configured for the Availability Groups.'</t>
-  </si>
-  <si>
-    <t>Sold Out</t>
-  </si>
-  <si>
-    <t>Instance type configured by the instance template is</t>
+    <t>The VPC configured in the instance template to  replace must be as the same as the one of the former one and the instance type should be the 2rd generation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The instance type configured in the instance template has sold out in all the  Availability Zones configured for the AG.'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The instance type configured in the instance template is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sold out</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -545,21 +554,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="48" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="2" width="48" style="1"/>
-    <col min="3" max="3" width="60.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="60.83203125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="48" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="57">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,10 +576,11 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="19">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -578,10 +588,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="38">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -592,7 +602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="19">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -600,10 +610,11 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="19">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -611,8 +622,9 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
